--- a/config_hlw/fish_3d_am_server.xlsx
+++ b/config_hlw/fish_3d_am_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>

--- a/config_hlw/fish_3d_am_server.xlsx
+++ b/config_hlw/fish_3d_am_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_hlw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_hlw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>id|行号</t>
   </si>
@@ -1312,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1452,16 +1452,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>200000000</v>
+        <v>1000000</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,10 +1475,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>1000000</v>
+        <v>800000000</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,16 +1486,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="1">
-        <v>800000000</v>
+        <v>10000000</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1503,13 +1503,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
-        <v>10000000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -1537,32 +1537,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E13" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_hlw/fish_3d_am_server.xlsx
+++ b/config_hlw/fish_3d_am_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>id|行号</t>
   </si>
@@ -104,14 +104,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100,200,300,400,500,600,700,800,900,1000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -171,10 +163,6 @@
     <t>fish_boss_data_config_2</t>
   </si>
   <si>
-    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>fish_boss_data_config_3</t>
   </si>
   <si>
@@ -226,6 +214,26 @@
   </si>
   <si>
     <t>name_type|名字类型 1=数字，2中文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,500,800,1000,2000,5000,8000,10000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,3000,4000,5000,8000,10000,20000,30000,40000,50000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,500,800,1000,2000,5000,8000,10000,15000,20000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,5000,10000,20000,30000,50000,60000,80000,90000,100000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +309,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +398,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -717,10 +740,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -743,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -769,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -795,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -821,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -847,14 +870,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>23</v>
@@ -873,14 +896,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>23</v>
@@ -899,14 +922,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>23</v>
@@ -1023,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>19</v>
@@ -1085,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
@@ -1097,55 +1120,55 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3">
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1160,16 +1183,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -1186,96 +1209,96 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="11">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="12">
         <v>6</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1314,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>10000000</v>
@@ -1506,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>10000</v>
@@ -1523,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>100000</v>
@@ -1540,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1">
         <v>200000</v>

--- a/config_hlw/fish_3d_am_server.xlsx
+++ b/config_hlw/fish_3d_am_server.xlsx
@@ -225,15 +225,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>200,500,800,1000,2000,5000,8000,10000,15000,20000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2000,5000,10000,20000,30000,50000,60000,80000,90000,100000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,500,800,1000,2000,5000,8000,10000,20000,50000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="12">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="12">
         <v>8</v>

--- a/config_hlw/fish_3d_am_server.xlsx
+++ b/config_hlw/fish_3d_am_server.xlsx
@@ -229,11 +229,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10000,20000,30000,40000,50000,60000,70000,80000,90000,100000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>200,500,800,1000,2000,5000,8000,10000,20000,50000,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="12">
         <v>6</v>
@@ -1287,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="12">
         <v>8</v>
